--- a/tabel selisih A.xlsx
+++ b/tabel selisih A.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>-27</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3">
+        <v>-3</v>
+      </c>
+      <c r="D3">
         <v>9</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -450,13 +450,13 @@
         </is>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="8">
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="9">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C9">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="10">
@@ -517,10 +517,10 @@
         <v>41</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -533,10 +533,10 @@
         <v>41</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -546,13 +546,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16">
@@ -610,13 +610,13 @@
         </is>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -626,13 +626,13 @@
         </is>
       </c>
       <c r="B17">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="B18">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="19">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D19">
-        <v>-10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>-4</v>
       </c>
       <c r="D20">
-        <v>-33</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="21">
@@ -690,13 +690,13 @@
         </is>
       </c>
       <c r="B21">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="B22">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C22">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -722,13 +722,13 @@
         </is>
       </c>
       <c r="B23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
         <v>6</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -754,13 +754,13 @@
         </is>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C25">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="B26">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>-5</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="B28">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -818,77 +818,13 @@
         </is>
       </c>
       <c r="B29">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C29">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>16</v>
-      </c>
-      <c r="C30">
-        <v>9</v>
-      </c>
-      <c r="D30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B31">
-        <v>44</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
         <v>-8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B32">
-        <v>42</v>
-      </c>
-      <c r="C32">
-        <v>-8</v>
-      </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B33">
-        <v>29</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>-13</v>
       </c>
     </row>
   </sheetData>
